--- a/recipes_model.xlsx
+++ b/recipes_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergejtarasov/Desktop/data processing technology/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB9C365-7725-784D-82B8-C7DAA33595EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA462032-7E18-CD4E-8133-A1B92AE25B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2620" windowWidth="28240" windowHeight="17240" xr2:uid="{ACA65E67-FD59-764B-B73B-78320AFD0939}"/>
+    <workbookView xWindow="6760" yWindow="3120" windowWidth="27840" windowHeight="16740" xr2:uid="{300182FF-4D8C-944E-A522-73C721B52356}"/>
   </bookViews>
   <sheets>
     <sheet name="Модель" sheetId="2" r:id="rId1"/>
@@ -575,7 +575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B7076-B67B-CC43-BD96-6C0AB3EA8BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51BA36D-5BE6-2649-8940-BCF0AAC4F734}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
